--- a/docs/Trial/osl18/d18o.xlsx
+++ b/docs/Trial/osl18/d18o.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\Desktop\Trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3729f9cc1dcc55e0/WORK/Website/palclim/Trial/osl18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4590B-8CD3-43B3-A8E6-1DC48D0A5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{ACC4590B-8CD3-43B3-A8E6-1DC48D0A5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7538F7B-8E8E-4486-9643-546AE8A4B110}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">age </t>
   </si>
   <si>
     <t>d18o</t>
+  </si>
+  <si>
+    <t>Err</t>
   </si>
 </sst>
 </file>
@@ -368,1100 +371,1508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3.23</v>
       </c>
       <c r="B2" s="2">
         <v>-1.6636186504363999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3.556</v>
       </c>
       <c r="B3" s="2">
         <v>-1.9188305997848512</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3.8340000000000001</v>
       </c>
       <c r="B4" s="2">
         <v>-2.0199209117889403</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4.1070000000000002</v>
       </c>
       <c r="B5" s="2">
         <v>-2.2325583362579344</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4.37</v>
       </c>
       <c r="B6" s="2">
         <v>-1.9116686248779298</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.6760000000000002</v>
       </c>
       <c r="B7" s="2">
         <v>-2.1094900035858153</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5.0110000000000001</v>
       </c>
       <c r="B8" s="2">
         <v>-2.0204888248443602</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5.266</v>
       </c>
       <c r="B9" s="2">
         <v>-1.9337782526016236</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5.5720000000000001</v>
       </c>
       <c r="B10" s="2">
         <v>-1.999218192100525</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5.8090000000000002</v>
       </c>
       <c r="B11" s="2">
         <v>-2.0230382347106932</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6.077</v>
       </c>
       <c r="B12" s="2">
         <v>-2.1080242061614989</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6.3070000000000004</v>
       </c>
       <c r="B13" s="2">
         <v>-2.0836417341232298</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6.5369999999999999</v>
       </c>
       <c r="B14" s="2">
         <v>-2.0918491744995116</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6.74</v>
       </c>
       <c r="B15" s="2">
         <v>-1.9970029258728028</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6.9740000000000002</v>
       </c>
       <c r="B16" s="2">
         <v>-2.1376849079132079</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>7.4790000000000001</v>
       </c>
       <c r="B17" s="2">
         <v>-2.2004068756103514</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7.7969999999999997</v>
       </c>
       <c r="B18" s="2">
         <v>-2.2209881210327147</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>8.0760000000000005</v>
       </c>
       <c r="B19" s="2">
         <v>-1.9089058303833009</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8.375</v>
       </c>
       <c r="B20" s="2">
         <v>-2.1780751609802245</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8.67</v>
       </c>
       <c r="B21" s="2">
         <v>-2.0382653141021727</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8.9600000000000009</v>
       </c>
       <c r="B22" s="2">
         <v>-1.7989298963546754</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>9.2520000000000007</v>
       </c>
       <c r="B23" s="2">
         <v>-2.0277150535583495</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>9.6010000000000009</v>
       </c>
       <c r="B24" s="2">
         <v>-2.1542855167388915</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>9.94</v>
       </c>
       <c r="B25" s="2">
         <v>-2.1479388141632079</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10.25</v>
       </c>
       <c r="B26" s="2">
         <v>-1.4347028398513795</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10.567</v>
       </c>
       <c r="B27" s="2">
         <v>-1.5361168050765992</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10.866</v>
       </c>
       <c r="B28" s="2">
         <v>-1.7260116004943848</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>11.175000000000001</v>
       </c>
       <c r="B29" s="2">
         <v>-1.1876413488388062</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>11.474</v>
       </c>
       <c r="B30" s="2">
         <v>-0.93150743484497067</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>11.786</v>
       </c>
       <c r="B31" s="2">
         <v>-0.98293670654296872</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>12.04</v>
       </c>
       <c r="B32" s="2">
         <v>-0.81825574874877927</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>12.678000000000001</v>
       </c>
       <c r="B33" s="2">
         <v>-1.093976583480835</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>12.962</v>
       </c>
       <c r="B34" s="2">
         <v>-0.95552393436431882</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>13.304</v>
       </c>
       <c r="B35" s="2">
         <v>-0.92201444149017331</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>13.603</v>
       </c>
       <c r="B36" s="2">
         <v>-1.0906520748138429</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>13.97</v>
       </c>
       <c r="B37" s="2">
         <v>-1.5023408794403077</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>14.314</v>
       </c>
       <c r="B38" s="2">
         <v>-1.0183226132392884</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>14.682</v>
       </c>
       <c r="B39" s="2">
         <v>-0.90414628028869626</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>15.026</v>
       </c>
       <c r="B40" s="2">
         <v>-0.63003500938415524</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>15.369</v>
       </c>
       <c r="B41" s="2">
         <v>-1.3966298961639405</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15.704000000000001</v>
       </c>
       <c r="B42" s="2">
         <v>-0.65817346811294553</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16.012</v>
       </c>
       <c r="B43" s="2">
         <v>-0.94558909177780148</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>16.327000000000002</v>
       </c>
       <c r="B44" s="2">
         <v>-0.80590006351470944</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>16.652000000000001</v>
       </c>
       <c r="B45" s="2">
         <v>-0.6972086691856384</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>17.277999999999999</v>
       </c>
       <c r="B46" s="2">
         <v>-0.51573884129524228</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>17.611999999999998</v>
       </c>
       <c r="B47" s="2">
         <v>-0.26296780645847317</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>17.998000000000001</v>
       </c>
       <c r="B48" s="2">
         <v>-0.47828757405281064</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>18.364000000000001</v>
       </c>
       <c r="B49" s="2">
         <v>-0.21382344901561737</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>18.763000000000002</v>
       </c>
       <c r="B50" s="2">
         <v>-0.18178485721349716</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>19.158000000000001</v>
       </c>
       <c r="B51" s="2">
         <v>-0.42432322740554806</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>19.535</v>
       </c>
       <c r="B52" s="2">
         <v>-4.061884447932243E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>19.849</v>
       </c>
       <c r="B53" s="2">
         <v>-0.12094659559428692</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>20.315000000000001</v>
       </c>
       <c r="B54" s="2">
         <v>-0.15226968392729759</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>20.701000000000001</v>
       </c>
       <c r="B55" s="2">
         <v>-0.16804732769727707</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>21.119</v>
       </c>
       <c r="B56" s="2">
         <v>-1.2178200149536134</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>21.51</v>
       </c>
       <c r="B57" s="2">
         <v>-7.6929428763687607E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>21.943999999999999</v>
       </c>
       <c r="B58" s="2">
         <v>-0.21563288211822509</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>22.349</v>
       </c>
       <c r="B59" s="2">
         <v>-0.2931329125165939</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>22.774999999999999</v>
       </c>
       <c r="B60" s="2">
         <v>-0.24344858169555664</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>23.192</v>
       </c>
       <c r="B61" s="2">
         <v>-0.23753781259059906</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>23.585000000000001</v>
       </c>
       <c r="B62" s="2">
         <v>-0.27066112697124478</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>23.995000000000001</v>
       </c>
       <c r="B63" s="2">
         <v>-0.23972810447216034</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>24.388999999999999</v>
       </c>
       <c r="B64" s="2">
         <v>-6.4715854972600934E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>24.847999999999999</v>
       </c>
       <c r="B65" s="2">
         <v>-0.37712055087089535</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>25.247</v>
       </c>
       <c r="B66" s="2">
         <v>-0.24661336481571197</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>25.652000000000001</v>
       </c>
       <c r="B67" s="2">
         <v>-0.37902119398117062</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>26.041</v>
       </c>
       <c r="B68" s="2">
         <v>-0.11095228619873523</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>26.457000000000001</v>
       </c>
       <c r="B69" s="2">
         <v>-0.17194413781166076</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>26.85</v>
       </c>
       <c r="B70" s="2">
         <v>-8.9116790888365355E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>27.257000000000001</v>
       </c>
       <c r="B71" s="2">
         <v>-0.17091601729393005</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>27.565999999999999</v>
       </c>
       <c r="B72" s="2">
         <v>-0.40291696429252621</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>27.928000000000001</v>
       </c>
       <c r="B73" s="2">
         <v>-0.1832772234082222</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>28.248000000000001</v>
       </c>
       <c r="B74" s="2">
         <v>-0.37671273589134213</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>28.527999999999999</v>
       </c>
       <c r="B75" s="2">
         <v>-0.38103785753250119</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>28.861999999999998</v>
       </c>
       <c r="B76" s="2">
         <v>-0.369527872800827</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>29.173999999999999</v>
       </c>
       <c r="B77" s="2">
         <v>-0.61942848205566403</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>29.535</v>
       </c>
       <c r="B78" s="2">
         <v>-0.47171991705894467</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>29.872</v>
       </c>
       <c r="B79" s="2">
         <v>-0.22514742255210876</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>30.231999999999999</v>
       </c>
       <c r="B80" s="2">
         <v>-0.72325071334838864</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>30.565000000000001</v>
       </c>
       <c r="B81" s="2">
         <v>-0.56378501296043393</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>30.922000000000001</v>
       </c>
       <c r="B82" s="2">
         <v>-0.3945527637004852</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>31.265999999999998</v>
       </c>
       <c r="B83" s="2">
         <v>-0.36601075172424313</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>31.626000000000001</v>
       </c>
       <c r="B84" s="2">
         <v>-0.16018101215362548</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>31.952999999999999</v>
       </c>
       <c r="B85" s="2">
         <v>-0.20008772253990173</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>32.281999999999996</v>
       </c>
       <c r="B86" s="2">
         <v>-0.54388886332511899</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>32.622</v>
       </c>
       <c r="B87" s="2">
         <v>-0.78377839565277097</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>32.988999999999997</v>
       </c>
       <c r="B88" s="2">
         <v>-0.42716788887977597</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>33.347000000000001</v>
       </c>
       <c r="B89" s="2">
         <v>-0.69816764831542966</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>33.673999999999999</v>
       </c>
       <c r="B90" s="2">
         <v>-0.67456248044967648</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>34.368000000000002</v>
       </c>
       <c r="B91" s="2">
         <v>-0.73742952585220334</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>34.725999999999999</v>
       </c>
       <c r="B92" s="2">
         <v>-0.66786357402801511</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>35.372</v>
       </c>
       <c r="B93" s="2">
         <v>-0.68968328475952145</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>35.68</v>
       </c>
       <c r="B94" s="2">
         <v>-0.46210130691528317</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>36.021999999999998</v>
       </c>
       <c r="B95" s="2">
         <v>-0.62373849391937253</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>36.28</v>
       </c>
       <c r="B96" s="2">
         <v>-0.78023180007934567</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>36.514000000000003</v>
       </c>
       <c r="B97" s="2">
         <v>-0.65592947244644162</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>36.774999999999999</v>
       </c>
       <c r="B98" s="2">
         <v>-0.57119556903839108</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>37.039000000000001</v>
       </c>
       <c r="B99" s="2">
         <v>-0.39449572205543515</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>37.311</v>
       </c>
       <c r="B100" s="2">
         <v>-0.84058281421661374</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>37.616</v>
       </c>
       <c r="B101" s="2">
         <v>-0.49428248047828671</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>37.844000000000001</v>
       </c>
       <c r="B102" s="2">
         <v>-0.50117161512374875</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>38.093000000000004</v>
       </c>
       <c r="B103" s="2">
         <v>-0.7465175652503967</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>38.347999999999999</v>
       </c>
       <c r="B104" s="2">
         <v>-0.50257598996162411</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>38.601999999999997</v>
       </c>
       <c r="B105" s="2">
         <v>-0.45518761515617367</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>38.863999999999997</v>
       </c>
       <c r="B106" s="2">
         <v>-0.6397791767120361</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>39.125</v>
       </c>
       <c r="B107" s="2">
         <v>-0.47933473825454709</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>39.366999999999997</v>
       </c>
       <c r="B108" s="2">
         <v>-0.63679846763610837</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>39.618000000000002</v>
       </c>
       <c r="B109" s="2">
         <v>-0.89425262451171872</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>39.872</v>
       </c>
       <c r="B110" s="2">
         <v>-0.9012075328826904</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>40.11</v>
       </c>
       <c r="B111" s="2">
         <v>-0.39574119091033932</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>40.366999999999997</v>
       </c>
       <c r="B112" s="2">
         <v>-0.49585714578628537</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>40.615000000000002</v>
       </c>
       <c r="B113" s="2">
         <v>-0.42932167291641232</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>40.884</v>
       </c>
       <c r="B114" s="2">
         <v>-0.51861577868461606</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>41.137999999999998</v>
       </c>
       <c r="B115" s="2">
         <v>-0.83504035711288449</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>41.414000000000001</v>
       </c>
       <c r="B116" s="2">
         <v>-0.68728240966796872</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>41.679000000000002</v>
       </c>
       <c r="B117" s="2">
         <v>-0.74357154607772824</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>41.94</v>
       </c>
       <c r="B118" s="2">
         <v>-0.4539406859874725</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42.191000000000003</v>
       </c>
       <c r="B119" s="2">
         <v>-0.68162074327468869</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42.454999999999998</v>
       </c>
       <c r="B120" s="2">
         <v>-0.59766837596893307</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42.74</v>
       </c>
       <c r="B121" s="2">
         <v>-0.66065266370773312</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42.994</v>
       </c>
       <c r="B122" s="2">
         <v>-0.75542971134185788</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43.503999999999998</v>
       </c>
       <c r="B123" s="2">
         <v>-0.75440498828887936</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43.83</v>
       </c>
       <c r="B124" s="2">
         <v>-0.78662398099899289</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44.011000000000003</v>
       </c>
       <c r="B125" s="2">
         <v>-0.97353800773620602</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44.271999999999998</v>
       </c>
       <c r="B126" s="2">
         <v>-0.88924142360687253</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44.52</v>
       </c>
       <c r="B127" s="2">
         <v>-0.86118486166000363</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44.802</v>
       </c>
       <c r="B128" s="2">
         <v>-0.77495434522628781</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45.051000000000002</v>
       </c>
       <c r="B129" s="2">
         <v>-0.71445282936096188</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45.308999999999997</v>
       </c>
       <c r="B130" s="2">
         <v>-0.62660291433334347</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45.578000000000003</v>
       </c>
       <c r="B131" s="2">
         <v>-0.79295339822769162</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45.834000000000003</v>
       </c>
       <c r="B132" s="2">
         <v>-0.7331123614311218</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>46.085999999999999</v>
       </c>
       <c r="B133" s="2">
         <v>-0.72746559619903561</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>46.343000000000004</v>
       </c>
       <c r="B134" s="2">
         <v>-0.86366435527801511</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>46.606999999999999</v>
       </c>
       <c r="B135" s="2">
         <v>-0.73993798732757565</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>46.859000000000002</v>
       </c>
       <c r="B136" s="2">
         <v>-0.83162673950195309</v>
+      </c>
+      <c r="C136">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
